--- a/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
+++ b/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/conepppcaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/IL/indst/CoNEPPpCAPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE724A2A-F486-9540-972E-4D0157EB6C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70EA5AB-BB1E-4047-92DB-4E227743B35A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="2360" windowWidth="24100" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,10 +820,10 @@
         <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="19">
-        <v>44307</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="D2" s="6">
         <f>INDEX('Egg production'!C:C,MATCH(About!B1,'Egg production'!A:A,0))</f>
-        <v>407000000</v>
+        <v>238500000</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="10">
         <f>SUMPRODUCT(C2:C6,D2:D6)/SUM(D2:D6)</f>
-        <v>7.7196438360556785</v>
+        <v>9.1214488630879487</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="D3" s="9">
         <f>INDEX('Broiler production'!C:C,MATCH(About!B1,'Broiler production'!A:A,0))</f>
-        <v>222935131.05131638</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="D4" s="14">
         <f>INDEX('Dairy production'!B:B,MATCH(About!B1,'Dairy production'!A:A,0))</f>
-        <v>8255844823</v>
+        <v>1654260723</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D5" s="9">
         <f>INDEX('Beef and pork production'!C:C,MATCH(About!B1,'Beef and pork production'!A:A,0))*1000</f>
-        <v>4441949000</v>
+        <v>2183866000</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D6" s="9">
         <f>INDEX('Beef and pork production'!B:B,MATCH(About!B1,'Beef and pork production'!A:A,0))*1000</f>
-        <v>1407277000</v>
+        <v>524704000</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B2" s="4">
         <f>Calculations!F2</f>
-        <v>7.7196438360556785</v>
+        <v>9.1214488630879487</v>
       </c>
     </row>
   </sheetData>
